--- a/biology/Botanique/Copiapoa/Copiapoa.xlsx
+++ b/biology/Botanique/Copiapoa/Copiapoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copiapoa est un genre de plantes à fleurs de la famille des Cactaceae composé d'environ 26 espèces originaires des déserts côtiers du nord du Chili. Elle porte le nom de Copiapo, une ville de cette région.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Copiapoa cinerea  Britton &amp; Rose 
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Copiapoa cinerea  Britton &amp; Rose 
 Copiapoa cinerea ssp. columna alba  Ritt. 
 Copiapoa dealbata  Ritt. 
 Copiapoa gigantea
@@ -530,9 +547,7 @@
 Copiapoa humilis  Phil. 
 Copiapoa hypogaea
 Copiapoa longispina
-Copiapoa tenuissima
-Synonymes
-Pilocopiapoa F.Ritter</t>
+Copiapoa tenuissima</t>
         </is>
       </c>
     </row>
@@ -557,12 +572,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pilocopiapoa F.Ritter</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Copiapoa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copiapoa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Source [2]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source :
 Les plantes sont de forme sphérique ou légèrement colonnaire (jusqu'à 1,3 m) avec des couleurs allant du marron au vert bleuâtre.
 Certaines espèces (C. cinerea, C. columna-alba, C. dealbata…) sont recouvertes de cire crayeuse reflétant le soleil et limitant l'évaporation. Elles sont adaptées à une forte sécheresse.
 En vieillissant, elles deviennent buissonnantes.
@@ -570,31 +623,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Copiapoa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Copiapoa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture des Copiapoa est délicate, à l'exception des espèces naines qui craignent surtout une trop forte exposition au soleil.
 Les espèces les plus fragiles gagnent à être greffées sur Echinopsis, Trichocereus, Eriocereus.
